--- a/tiun/Список заявок СК Репка.xlsx
+++ b/tiun/Список заявок СК Репка.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="294">
   <si>
     <t>Агафонова Ирина Васильевна</t>
   </si>
@@ -207,51 +207,27 @@
     <t>59:01:1715086:135Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 42 (кад. №59:01:1715086:135)</t>
   </si>
   <si>
-    <t>25-3/2022-ТУ                                                                                                             от 09.08.2022</t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 07 №036475, выдан 15.03.2007, ОВД Дзержинского р-на г.Перми</t>
   </si>
   <si>
-    <t xml:space="preserve">25-2/2022-ТУ  от 09.08.2022                                                                                                          </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 67 19 №851291, выдан 07.10.2019, УМВД Ханты-Мансийскому автономному округу-Югре</t>
   </si>
   <si>
-    <t xml:space="preserve">25-5/2022-ТУ  от 09.08.2022                                                                                                          </t>
-  </si>
-  <si>
-    <t>ПУ № и тип</t>
-  </si>
-  <si>
     <t>паспорт РФ серия 67 08 №837757, выдан 09.10.2008, Отделением УФМС России по Ханты-Мансийскому автономному округу-Югре</t>
   </si>
   <si>
-    <t xml:space="preserve">25-6/2022-ТУ  от 09.08.2022                                                                                                          </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 07 №217137, выдан 04.03.2008, Отделом УФМС России по Пермскому краю в Дзержинском р-не г.Перми</t>
   </si>
   <si>
-    <t xml:space="preserve">25-8/2022-ТУ  от 09.08.2022                                                                                                          </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 04 №620686, выдан 21.04.2005, ОВД Ординского района Пермской области</t>
   </si>
   <si>
-    <t xml:space="preserve">25-7/2022-ТУ  от 09.08.2022                                                                                                          </t>
-  </si>
-  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 26 (кад. №59:01:1715086:126)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 22 №309594, выдан 23.11.2022. ГУ МВД России по Пермскому краю</t>
   </si>
   <si>
-    <t>25-9/2022-ТУ                                                                                                             от 09.08.2022</t>
-  </si>
-  <si>
     <t>ФИО1</t>
   </si>
   <si>
@@ -285,18 +261,12 @@
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 21 (кад. №59:01:1715086:124)</t>
   </si>
   <si>
-    <t>25-11/2022-ТУ                                                                                                             от 09.08.2022</t>
-  </si>
-  <si>
     <t>U/кВ</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 03 №896475, выдан 19.04.2003, ОВД Дзержинского района города Перми</t>
   </si>
   <si>
-    <t xml:space="preserve">25-34/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 65 (кад. №59:01:1715086:113)</t>
   </si>
   <si>
@@ -306,12 +276,6 @@
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 25 (кад. №59:01:1715086:128)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-10/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
-    <t>11/2023-ТУ                                                                                                                 от 18.04.2023</t>
-  </si>
-  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 64 (кад. №59:01:1715086:174)</t>
   </si>
   <si>
@@ -319,9 +283,6 @@
   </si>
   <si>
     <t>паспорт РФ серия 57 05 №778547, выдан 06.12.2005, УВД Мотовилихинского района города Пермь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/2023-ТУ от 07.06.2023                                                                                                                    </t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 70 (кад. №59:01:1715086:115)</t>
@@ -331,9 +292,6 @@
 Отделом УФМС России по Пермскому краю в Свердловского районе города Перми</t>
   </si>
   <si>
-    <t xml:space="preserve">25-12/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 73 (кад. №59:01:1715086:137)</t>
   </si>
   <si>
@@ -343,57 +301,36 @@
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 5 (кад. №59:01:1715086:168)</t>
   </si>
   <si>
-    <t xml:space="preserve">38/2022-ТУ                                                                                                                от 07.12.2022                                                                                                                   </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 19 № 939640, выдан 25.12.2019, ГУ МВД России по Пермскому краю</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 2 (кад. №59:01:1715086:170)</t>
   </si>
   <si>
-    <t xml:space="preserve">37/2022-ТУ                                                                                                                от 06.12.2022                                                                                                                   </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 11 №748688, выдан 23.04.2011, Отделом УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 7 (кад. №59:01:1715086:119)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-13/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 14 №286353, выдан 18.02.2015, Отделом УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 91а (кад. №59:01:1715086:123)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-16/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 03 №544500, выдан 19.11.2002, ОВД  Дзержинского района города Пермь</t>
   </si>
   <si>
-    <t xml:space="preserve">25-15/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 75 (кад. №59:01:1715086:121)</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 79 (кад. №59:01:1715086:160)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-14/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. 3-я Набережная, 80а, участок 63 (кад. №59:01:1715086:161)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-36/2022-ТУ от 19.09.2022                                                                                                        </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 15 №372671, выдан 28.09.2015, Отделом УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
   </si>
   <si>
@@ -406,96 +343,63 @@
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 49 (кад. №59:01:1715086:116)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-32/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 01 №705007, выдан 06.12.2001, Кировским РОВД города Перм</t>
   </si>
   <si>
     <t>Пермский край, Пермь, с/к «Репка», ул. Набережная, 80а, участок 68 (кад. №59:01:1715086:173)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-33/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 10 №621613, выдан 24.08.2010, Отделом  УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 55 (кад. №59:01:1715086:117)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-18/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 19 №945856, выдан 16.01.2019, ГУ МВД России по Пермскому краю</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 53 (кад. №59:01:1715086:172)</t>
   </si>
   <si>
-    <t xml:space="preserve">03/2023-ТУ от 05.01.2023                                                                                                                 </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 23 №444172, выдан 17.10.2023, ГУ МВД России по Пермскому краю</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 52 (кад. №59:01:1715086:171)</t>
   </si>
   <si>
-    <t xml:space="preserve">39/2023-ТУ от 07.12.2022                                                                                                             </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 65 09 №689988, выдан 25.08.2009, Отделом УФМС России по Свердловской области в Железнодорожном районе города Екатеринбурга</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 6 (кад. №59:01:1715086:157)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-19/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 10 №594423, выдан 11.05.2010, Отделом УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 14 (кад. №59:01:1715086:118)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-20/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 17 №702471, выдан 26.03.2018, ГУ МВД России по Пермскому краю</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 3 (кад. №59:01:1715086:167)</t>
   </si>
   <si>
-    <t xml:space="preserve">40/2022-ТУ от 07.12.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 14 №252672, выдан 26.11.2014, Отделом УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 1 (кад. №59:01:1715086:169)</t>
   </si>
   <si>
-    <t xml:space="preserve">41/2022-ТУ от 12.12.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 04 №285700, выдан 31.10.2003, Отделом внутренних дел Дзержинского района города Пермь</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 51 (кад. №59:01:1715086:145)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-21/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 23 №426664, выдан 13.10.2023 ГУ МВД России по Пермскому краю</t>
   </si>
   <si>
-    <t xml:space="preserve">25-22/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 13 (кад. №59:01:1715086:154)</t>
   </si>
   <si>
@@ -505,78 +409,51 @@
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 82 (кад. №59:01:1715086:166)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-37/2022-ТУ от 24.10.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 04 №195053, выдан 26.09.2003, ОВД Дзержинского района города Пермь</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 8 (кад. №59:01:1715086:131)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-25/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 18 №830408, выдан 25.03.2019, ГУ МВД России по Пермскому краю</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 11 (кад. №59:01:1715086:138)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-24/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 01 №552386, выдан 04.01.2002, Верещагинским РОВД Пермской области</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 12 (кад. №59:01:1715086:156)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-23/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 11 №855446, выдан 06.03.2012, Отделом УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 74 (кад. №59:01:1715086:153)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-26/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 18 №757777, выдан 04.08.2018, ГУ МВД России по Пермскому краю</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 4 (кад. №59:01:1715086:152)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-27/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 08 №282995, выдан 29.07.2008, Отделом УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 47 (кад. №59:01:1715086:159)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-35/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 05 №780224, выдан 15.11.2005, ОВД Дзержинского района города Пермь</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 24 (кад. №59:01:1715086:148)</t>
   </si>
   <si>
-    <t xml:space="preserve">25-29/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 01 №698236, выдан 02.11.2001, ОВД Дзержинского района города Пермь</t>
   </si>
   <si>
-    <t xml:space="preserve">25-28/2022-ТУ от 09.08.2022                                                                                              </t>
-  </si>
-  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 19 (кад. №59:01:1715086:140)</t>
   </si>
   <si>
@@ -896,6 +773,138 @@
   </si>
   <si>
     <t>Ясыревой Надежде Филипповне</t>
+  </si>
+  <si>
+    <t>ФИО2</t>
+  </si>
+  <si>
+    <t>ПУ1</t>
+  </si>
+  <si>
+    <t>АДПУ №1111 от 99.99.9999</t>
+  </si>
+  <si>
+    <t>Меркурий 234 ARTMX2-02 DPOBR.G, 5(100) А</t>
+  </si>
+  <si>
+    <t>25-3/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-2/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-5/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-6/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-8/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-7/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-9/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-11/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-34/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-10/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>11/2023-ТУ от 18.04.2023</t>
+  </si>
+  <si>
+    <t>25-12/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>19/2023-ТУ от 07.06.2023</t>
+  </si>
+  <si>
+    <t>38/2022-ТУ от 07.12.2022</t>
+  </si>
+  <si>
+    <t>37/2022-ТУ от 06.12.2022</t>
+  </si>
+  <si>
+    <t>25-13/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-16/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-15/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-14/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-36/2022-ТУ от 19.09.2022</t>
+  </si>
+  <si>
+    <t>25-32/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-33/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-18/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>39/2023-ТУ от 07.12.2022</t>
+  </si>
+  <si>
+    <t>03/2023-ТУ от 05.01.2023</t>
+  </si>
+  <si>
+    <t>25-19/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-20/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>40/2022-ТУ от 07.12.2022</t>
+  </si>
+  <si>
+    <t>41/2022-ТУ от 12.12.2022</t>
+  </si>
+  <si>
+    <t>25-21/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-22/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-37/2022-ТУ от 24.10.2022</t>
+  </si>
+  <si>
+    <t>25-25/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-24/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-23/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-26/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-27/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-35/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-29/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-28/2022-ТУ от 09.08.2022</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1144,6 +1153,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J39" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1477,44 +1489,46 @@
         <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>53</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1525,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>47</v>
@@ -1546,21 +1560,25 @@
         <v>46</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="K2" s="18">
         <v>45443</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O2" s="23">
         <v>45418</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1571,7 +1589,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>50</v>
@@ -1592,21 +1610,25 @@
         <v>49</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="K3" s="16">
         <v>45443</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O3" s="23">
         <v>45418</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1617,7 +1639,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>54</v>
@@ -1638,21 +1660,25 @@
         <v>52</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="K4" s="16">
         <v>45443</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O4" s="23">
         <v>45418</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1663,7 +1689,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>55</v>
@@ -1681,24 +1707,28 @@
         <v>59</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="K5" s="16">
         <v>45443</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O5" s="23">
         <v>45418</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1709,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>60</v>
@@ -1724,27 +1754,31 @@
         <v>3.5</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="K6" s="7">
         <v>45443</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O6" s="23">
         <v>45418</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1755,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2">
         <v>89091096802</v>
@@ -1770,22 +1804,26 @@
         <v>3.5</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7">
         <v>45443</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O7" s="23">
         <v>45418</v>
       </c>
@@ -1798,10 +1836,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2">
         <v>89125991845</v>
@@ -1813,22 +1851,26 @@
         <v>3.5</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>68</v>
+        <v>257</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="K8" s="7">
         <v>45443</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O8" s="23">
         <v>45418</v>
       </c>
@@ -1841,10 +1883,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2">
         <v>89125991845</v>
@@ -1856,22 +1898,26 @@
         <v>3.5</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="K9" s="7">
         <v>45443</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O9" s="23">
         <v>45418</v>
       </c>
@@ -1884,10 +1930,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2">
         <v>89027939590</v>
@@ -1899,22 +1945,26 @@
         <v>3.5</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="K10" s="7">
         <v>45443</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O10" s="23">
         <v>45418</v>
       </c>
@@ -1927,10 +1977,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2">
         <v>89824963066</v>
@@ -1942,22 +1992,26 @@
         <v>3.5</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7">
         <v>45443</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O11" s="23">
         <v>45418</v>
       </c>
@@ -1970,10 +2024,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2">
         <v>89028331460</v>
@@ -1985,22 +2039,26 @@
         <v>3.5</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="K12" s="7">
         <v>45443</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O12" s="23">
         <v>45418</v>
       </c>
@@ -2013,10 +2071,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2">
         <v>89824743899</v>
@@ -2028,22 +2086,26 @@
         <v>3.5</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>90</v>
+        <v>262</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7">
         <v>45443</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O13" s="23">
         <v>45418</v>
       </c>
@@ -2056,10 +2118,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2">
         <v>89523351888</v>
@@ -2071,22 +2133,26 @@
         <v>3.5</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>94</v>
+        <v>263</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7">
         <v>45443</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O14" s="23">
         <v>45418</v>
       </c>
@@ -2099,10 +2165,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2">
         <v>89124821690</v>
@@ -2114,22 +2180,26 @@
         <v>3.5</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="K15" s="7">
         <v>45423</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O15" s="23">
         <v>45418</v>
       </c>
@@ -2142,10 +2212,10 @@
         <v>42</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2">
         <v>89222428214</v>
@@ -2157,22 +2227,26 @@
         <v>3.5</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7">
         <v>45443</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O16" s="23">
         <v>45418</v>
       </c>
@@ -2185,10 +2259,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E17" s="2">
         <v>89504610328</v>
@@ -2200,22 +2274,26 @@
         <v>3.5</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="K17" s="7">
         <v>45443</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O17" s="23">
         <v>45418</v>
       </c>
@@ -2228,10 +2306,10 @@
         <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2">
         <v>89504444466</v>
@@ -2243,22 +2321,26 @@
         <v>3</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>106</v>
+        <v>267</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="K18" s="7">
         <v>45443</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O18" s="23">
         <v>45418</v>
       </c>
@@ -2271,10 +2353,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E19" s="2">
         <v>89519350669</v>
@@ -2286,22 +2368,26 @@
         <v>3.5</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="K19" s="7">
         <v>45443</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O19" s="23">
         <v>45418</v>
       </c>
@@ -2314,10 +2400,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2">
         <v>89226471285</v>
@@ -2329,22 +2415,26 @@
         <v>3.5</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>112</v>
+        <v>269</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="K20" s="7">
         <v>45443</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O20" s="23">
         <v>45418</v>
       </c>
@@ -2357,10 +2447,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E21" s="2">
         <v>89222454484</v>
@@ -2372,22 +2462,26 @@
         <v>3.5</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="K21" s="7">
         <v>45443</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O21" s="23">
         <v>45418</v>
       </c>
@@ -2400,10 +2494,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2">
         <v>89124824329</v>
@@ -2415,22 +2509,26 @@
         <v>3.5</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>117</v>
+        <v>271</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="K22" s="7">
         <v>45443</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O22" s="23">
         <v>45418</v>
       </c>
@@ -2443,10 +2541,10 @@
         <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E23" s="2">
         <v>89124824329</v>
@@ -2458,22 +2556,26 @@
         <v>3.5</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>187</v>
+        <v>147</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="K23" s="13">
         <v>45480</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
+        <v>154</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O23" s="23">
         <v>45418</v>
       </c>
@@ -2486,10 +2588,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E24" s="2">
         <v>89048424872</v>
@@ -2501,22 +2603,26 @@
         <v>3.5</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="K24" s="7">
         <v>45443</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O24" s="23">
         <v>45418</v>
       </c>
@@ -2529,10 +2635,10 @@
         <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2">
         <v>89024734685</v>
@@ -2544,22 +2650,26 @@
         <v>3.5</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7">
         <v>45443</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O25" s="23">
         <v>45418</v>
       </c>
@@ -2569,13 +2679,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="E26" s="11">
         <v>89504439396</v>
@@ -2587,22 +2697,26 @@
         <v>5</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>127</v>
+        <v>274</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7">
         <v>45443</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O26" s="23">
         <v>45418</v>
       </c>
@@ -2615,10 +2729,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E27" s="2">
         <v>89197090590</v>
@@ -2630,22 +2744,26 @@
         <v>3.5</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>130</v>
+        <v>275</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="K27" s="7">
         <v>45443</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O27" s="23">
         <v>45418</v>
       </c>
@@ -2658,10 +2776,10 @@
         <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E28" s="2">
         <v>89197090590</v>
@@ -2673,22 +2791,26 @@
         <v>3.5</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>133</v>
+        <v>276</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="K28" s="7">
         <v>45443</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O28" s="23">
         <v>45418</v>
       </c>
@@ -2701,10 +2823,10 @@
         <v>16</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E29" s="2">
         <v>89523325290</v>
@@ -2716,22 +2838,26 @@
         <v>3.5</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>139</v>
+        <v>277</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7">
         <v>45443</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N29" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O29" s="23">
         <v>45418</v>
       </c>
@@ -2744,10 +2870,10 @@
         <v>38</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E30" s="2">
         <v>89026381759</v>
@@ -2759,22 +2885,26 @@
         <v>3.5</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>136</v>
+        <v>278</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="K30" s="7">
         <v>45443</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N30" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O30" s="23">
         <v>45418</v>
       </c>
@@ -2787,10 +2917,10 @@
         <v>41</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E31" s="2">
         <v>89026381759</v>
@@ -2802,22 +2932,26 @@
         <v>3.5</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="K31" s="7">
         <v>45443</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O31" s="23">
         <v>45418</v>
       </c>
@@ -2830,10 +2964,10 @@
         <v>17</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E32" s="2">
         <v>89026344932</v>
@@ -2845,22 +2979,26 @@
         <v>3.5</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="K32" s="7">
         <v>45443</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O32" s="23">
         <v>45418</v>
       </c>
@@ -2873,10 +3011,10 @@
         <v>18</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="E33" s="2">
         <v>89194558266</v>
@@ -2888,22 +3026,26 @@
         <v>3.5</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>148</v>
+        <v>281</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="K33" s="7">
         <v>45443</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O33" s="23">
         <v>45418</v>
       </c>
@@ -2916,10 +3058,10 @@
         <v>39</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="E34" s="2">
         <v>89028090634</v>
@@ -2931,22 +3073,26 @@
         <v>3.5</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>151</v>
+        <v>282</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="K34" s="7">
         <v>45443</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O34" s="23">
         <v>45418</v>
       </c>
@@ -2959,10 +3105,10 @@
         <v>40</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="E35" s="2">
         <v>89125888232</v>
@@ -2974,22 +3120,26 @@
         <v>3.5</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="K35" s="7">
         <v>45443</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O35" s="23">
         <v>45418</v>
       </c>
@@ -3003,10 +3153,10 @@
         <v>19</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E36" s="2">
         <v>89504591682</v>
@@ -3018,22 +3168,26 @@
         <v>3.5</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>156</v>
+        <v>284</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="K36" s="7">
         <v>45443</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O36" s="23">
         <v>45418</v>
       </c>
@@ -3046,10 +3200,10 @@
         <v>20</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>21</v>
@@ -3061,22 +3215,26 @@
         <v>3.5</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="K37" s="7">
         <v>45443</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M37" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N37" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O37" s="23">
         <v>45418</v>
       </c>
@@ -3089,10 +3247,10 @@
         <v>35</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E38" s="2">
         <v>89082587779</v>
@@ -3104,22 +3262,26 @@
         <v>3.5</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="K38" s="7">
         <v>45443</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M38" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N38" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O38" s="23">
         <v>45418</v>
       </c>
@@ -3132,10 +3294,10 @@
         <v>24</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="E39" s="2">
         <v>89630188615</v>
@@ -3153,16 +3315,20 @@
         <v>58</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="K39" s="7">
         <v>45443</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M39" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N39" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O39" s="23">
         <v>45418</v>
       </c>
@@ -3175,10 +3341,10 @@
         <v>23</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="E40" s="2">
         <v>89504450100</v>
@@ -3190,22 +3356,26 @@
         <v>3.5</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="K40" s="7">
         <v>45443</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M40" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N40" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O40" s="23">
         <v>45418</v>
       </c>
@@ -3218,10 +3388,10 @@
         <v>22</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="E41" s="2">
         <v>89504450100</v>
@@ -3233,22 +3403,26 @@
         <v>3.5</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="K41" s="7">
         <v>45443</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M41" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N41" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O41" s="23">
         <v>45418</v>
       </c>
@@ -3261,10 +3435,10 @@
         <v>25</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="E42" s="2">
         <v>89097271777</v>
@@ -3276,22 +3450,26 @@
         <v>3.5</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>172</v>
+        <v>289</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="K42" s="7">
         <v>45443</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M42" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N42" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O42" s="23">
         <v>45418</v>
       </c>
@@ -3304,10 +3482,10 @@
         <v>26</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="E43" s="2">
         <v>89519241346</v>
@@ -3319,22 +3497,26 @@
         <v>3.5</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="K43" s="7">
         <v>45443</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M43" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N43" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O43" s="23">
         <v>45418</v>
       </c>
@@ -3347,10 +3529,10 @@
         <v>33</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E44" s="2">
         <v>89127883853</v>
@@ -3362,22 +3544,26 @@
         <v>3.5</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="K44" s="7">
         <v>45443</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M44" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N44" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O44" s="23">
         <v>45418</v>
       </c>
@@ -3390,10 +3576,10 @@
         <v>28</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="E45" s="2">
         <v>89991264971</v>
@@ -3405,22 +3591,26 @@
         <v>3.5</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="K45" s="7">
         <v>45443</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M45" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N45" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O45" s="23">
         <v>45418</v>
       </c>
@@ -3433,10 +3623,10 @@
         <v>27</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E46" s="2">
         <v>89523398898</v>
@@ -3448,22 +3638,26 @@
         <v>3.5</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="K46" s="7">
         <v>45443</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="M46" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N46" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="O46" s="23">
         <v>45418</v>
       </c>

--- a/tiun/Список заявок СК Репка.xlsx
+++ b/tiun/Список заявок СК Репка.xlsx
@@ -14,14 +14,14 @@
   <definedNames>
     <definedName name="_Hlk111532563" localSheetId="0">Лист1!$A$35</definedName>
     <definedName name="_Hlk84408042" localSheetId="0">Лист1!$A$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$T$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$V$47</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="297">
   <si>
     <t>Агафонова Ирина Васильевна</t>
   </si>
@@ -249,9 +249,6 @@
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 45 (кад. №59:01:1715086:149)</t>
   </si>
   <si>
-    <t>P/кВт</t>
-  </si>
-  <si>
     <t>Телефон1</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 21 (кад. №59:01:1715086:124)</t>
-  </si>
-  <si>
-    <t>U/кВ</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 03 №896475, выдан 19.04.2003, ОВД Дзержинского района города Перми</t>
@@ -637,9 +631,6 @@
     <t>9/588/24-АТП</t>
   </si>
   <si>
-    <t>АДПУ1</t>
-  </si>
-  <si>
     <t>Агафоновой Ирине Васильевне</t>
   </si>
   <si>
@@ -778,15 +769,6 @@
     <t>ФИО2</t>
   </si>
   <si>
-    <t>ПУ1</t>
-  </si>
-  <si>
-    <t>АДПУ №1111 от 99.99.9999</t>
-  </si>
-  <si>
-    <t>Меркурий 234 ARTMX2-02 DPOBR.G, 5(100) А</t>
-  </si>
-  <si>
     <t>25-3/2022-ТУ от 09.08.2022</t>
   </si>
   <si>
@@ -905,6 +887,33 @@
   </si>
   <si>
     <t>25-28/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тип </t>
+  </si>
+  <si>
+    <t>Номинальный ток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заводской номер </t>
+  </si>
+  <si>
+    <t>Акт номер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№ 135-05    </t>
+  </si>
+  <si>
+    <t>СЕ307 R34.749.OR1.QYUVLFZ.LR01</t>
+  </si>
+  <si>
+    <t>5(80)А</t>
+  </si>
+  <si>
+    <t>Напряжение</t>
+  </si>
+  <si>
+    <t>Мощность</t>
   </si>
 </sst>
 </file>
@@ -957,7 +966,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -967,6 +976,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1133,9 +1148,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1155,6 +1167,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1458,33 +1488,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T47"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J39" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="3" customWidth="1"/>
     <col min="2" max="3" width="22.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="17.42578125" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9.5703125" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="12.140625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="36.85546875" style="9" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="10" width="15" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="17.7109375" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="30" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" style="9" customWidth="1"/>
+    <col min="9" max="10" width="15" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="70.5703125" style="15" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="9.140625" style="3"/>
-    <col min="20" max="20" width="104.28515625" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="3"/>
+    <col min="14" max="14" width="21.85546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="29.140625" style="25" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" style="3" customWidth="1"/>
+    <col min="18" max="21" width="9.140625" style="3"/>
+    <col min="22" max="22" width="104.28515625" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -1492,46 +1527,52 @@
         <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1539,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>47</v>
@@ -1560,28 +1601,34 @@
         <v>46</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="K2" s="18">
-        <v>45443</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O2" s="23">
-        <v>45418</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="K2" s="17">
+        <v>45443</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="P2" s="29">
+        <v>12841187227171</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>45432</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1589,7 +1636,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>50</v>
@@ -1610,28 +1657,26 @@
         <v>49</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K3" s="16">
         <v>45443</v>
       </c>
-      <c r="L3" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O3" s="23">
-        <v>45418</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="22">
+        <v>45432</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1639,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>54</v>
@@ -1660,28 +1705,26 @@
         <v>52</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K4" s="16">
         <v>45443</v>
       </c>
-      <c r="L4" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O4" s="23">
-        <v>45418</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="22">
+        <v>45432</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1689,7 +1732,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>55</v>
@@ -1707,31 +1750,29 @@
         <v>59</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K5" s="16">
         <v>45443</v>
       </c>
-      <c r="L5" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O5" s="23">
-        <v>45418</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="22">
+        <v>45432</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1739,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>60</v>
@@ -1757,31 +1798,29 @@
         <v>61</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K6" s="7">
         <v>45443</v>
       </c>
-      <c r="L6" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O6" s="23">
-        <v>45418</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="22">
+        <v>45432</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1789,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>70</v>
@@ -1807,28 +1846,26 @@
         <v>62</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7">
         <v>45443</v>
       </c>
-      <c r="L7" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O7" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1836,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>71</v>
@@ -1854,28 +1891,26 @@
         <v>63</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K8" s="7">
         <v>45443</v>
       </c>
-      <c r="L8" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O8" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1883,7 +1918,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>72</v>
@@ -1901,28 +1936,26 @@
         <v>64</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K9" s="7">
         <v>45443</v>
       </c>
-      <c r="L9" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O9" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1930,7 +1963,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>73</v>
@@ -1948,28 +1981,26 @@
         <v>65</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7">
         <v>45443</v>
       </c>
-      <c r="L10" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O10" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1977,7 +2008,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>66</v>
@@ -1995,28 +2026,26 @@
         <v>67</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7">
         <v>45443</v>
       </c>
-      <c r="L11" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O11" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2024,7 +2053,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>74</v>
@@ -2039,31 +2068,29 @@
         <v>3.5</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K12" s="7">
         <v>45443</v>
       </c>
-      <c r="L12" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O12" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2071,10 +2098,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2">
         <v>89824743899</v>
@@ -2086,31 +2113,29 @@
         <v>3.5</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K13" s="7">
         <v>45443</v>
       </c>
-      <c r="L13" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O13" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2118,10 +2143,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2">
         <v>89523351888</v>
@@ -2133,31 +2158,29 @@
         <v>3.5</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7">
         <v>45443</v>
       </c>
-      <c r="L14" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O14" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2165,10 +2188,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2">
         <v>89124821690</v>
@@ -2180,31 +2203,29 @@
         <v>3.5</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K15" s="7">
         <v>45423</v>
       </c>
-      <c r="L15" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O15" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2212,10 +2233,10 @@
         <v>42</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2">
         <v>89222428214</v>
@@ -2227,31 +2248,29 @@
         <v>3.5</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7">
         <v>45443</v>
       </c>
-      <c r="L16" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O16" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2259,10 +2278,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2">
         <v>89504610328</v>
@@ -2274,31 +2293,29 @@
         <v>3.5</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7">
         <v>45443</v>
       </c>
-      <c r="L17" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O17" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2306,10 +2323,10 @@
         <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E18" s="2">
         <v>89504444466</v>
@@ -2321,31 +2338,29 @@
         <v>3</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7">
         <v>45443</v>
       </c>
-      <c r="L18" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N18" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O18" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2353,10 +2368,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E19" s="2">
         <v>89519350669</v>
@@ -2368,31 +2383,29 @@
         <v>3.5</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K19" s="7">
         <v>45443</v>
       </c>
-      <c r="L19" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M19" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O19" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2400,10 +2413,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E20" s="2">
         <v>89226471285</v>
@@ -2415,31 +2428,29 @@
         <v>3.5</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K20" s="7">
         <v>45443</v>
       </c>
-      <c r="L20" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N20" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O20" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2447,10 +2458,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" s="2">
         <v>89222454484</v>
@@ -2462,31 +2473,29 @@
         <v>3.5</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K21" s="7">
         <v>45443</v>
       </c>
-      <c r="L21" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M21" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N21" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O21" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2494,10 +2503,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E22" s="2">
         <v>89124824329</v>
@@ -2509,31 +2518,29 @@
         <v>3.5</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K22" s="7">
         <v>45443</v>
       </c>
-      <c r="L22" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O22" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="14" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="14" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2541,10 +2548,10 @@
         <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E23" s="2">
         <v>89124824329</v>
@@ -2556,31 +2563,29 @@
         <v>3.5</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K23" s="13">
         <v>45480</v>
       </c>
-      <c r="L23" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M23" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N23" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O23" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2588,10 +2593,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" s="2">
         <v>89048424872</v>
@@ -2603,31 +2608,29 @@
         <v>3.5</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K24" s="7">
         <v>45443</v>
       </c>
-      <c r="L24" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N24" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O24" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2635,10 +2638,10 @@
         <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2">
         <v>89024734685</v>
@@ -2650,42 +2653,40 @@
         <v>3.5</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7">
         <v>45443</v>
       </c>
-      <c r="L25" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M25" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N25" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O25" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E26" s="11">
         <v>89504439396</v>
@@ -2697,31 +2698,29 @@
         <v>5</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7">
         <v>45443</v>
       </c>
-      <c r="L26" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N26" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O26" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2729,10 +2728,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2">
         <v>89197090590</v>
@@ -2744,31 +2743,29 @@
         <v>3.5</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K27" s="7">
         <v>45443</v>
       </c>
-      <c r="L27" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M27" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N27" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O27" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2776,10 +2773,10 @@
         <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2">
         <v>89197090590</v>
@@ -2791,31 +2788,29 @@
         <v>3.5</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7">
         <v>45443</v>
       </c>
-      <c r="L28" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M28" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N28" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O28" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2823,10 +2818,10 @@
         <v>16</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" s="2">
         <v>89523325290</v>
@@ -2838,31 +2833,29 @@
         <v>3.5</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7">
         <v>45443</v>
       </c>
-      <c r="L29" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M29" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N29" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O29" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2870,10 +2863,10 @@
         <v>38</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E30" s="2">
         <v>89026381759</v>
@@ -2885,31 +2878,29 @@
         <v>3.5</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K30" s="7">
         <v>45443</v>
       </c>
-      <c r="L30" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M30" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N30" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O30" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2917,10 +2908,10 @@
         <v>41</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E31" s="2">
         <v>89026381759</v>
@@ -2932,31 +2923,29 @@
         <v>3.5</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K31" s="7">
         <v>45443</v>
       </c>
-      <c r="L31" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="M31" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N31" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O31" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2964,10 +2953,10 @@
         <v>17</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E32" s="2">
         <v>89026344932</v>
@@ -2979,31 +2968,29 @@
         <v>3.5</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K32" s="7">
         <v>45443</v>
       </c>
-      <c r="L32" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M32" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N32" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O32" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3011,10 +2998,10 @@
         <v>18</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E33" s="2">
         <v>89194558266</v>
@@ -3026,31 +3013,29 @@
         <v>3.5</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K33" s="7">
         <v>45443</v>
       </c>
-      <c r="L33" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M33" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N33" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O33" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3058,10 +3043,10 @@
         <v>39</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E34" s="2">
         <v>89028090634</v>
@@ -3073,31 +3058,29 @@
         <v>3.5</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K34" s="7">
         <v>45443</v>
       </c>
-      <c r="L34" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M34" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N34" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O34" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3105,10 +3088,10 @@
         <v>40</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E35" s="2">
         <v>89125888232</v>
@@ -3120,32 +3103,30 @@
         <v>3.5</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K35" s="7">
         <v>45443</v>
       </c>
-      <c r="L35" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="M35" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N35" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O35" s="23">
-        <v>45418</v>
-      </c>
-      <c r="T35" s="5"/>
-    </row>
-    <row r="36" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="22">
+        <v>45432</v>
+      </c>
+      <c r="V35" s="5"/>
+    </row>
+    <row r="36" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3153,10 +3134,10 @@
         <v>19</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E36" s="2">
         <v>89504591682</v>
@@ -3168,31 +3149,29 @@
         <v>3.5</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K36" s="7">
         <v>45443</v>
       </c>
-      <c r="L36" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M36" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N36" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O36" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L36" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3200,10 +3179,10 @@
         <v>20</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>21</v>
@@ -3215,31 +3194,29 @@
         <v>3.5</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K37" s="7">
         <v>45443</v>
       </c>
-      <c r="L37" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M37" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N37" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O37" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L37" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3247,10 +3224,10 @@
         <v>35</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E38" s="2">
         <v>89082587779</v>
@@ -3262,31 +3239,29 @@
         <v>3.5</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K38" s="7">
         <v>45443</v>
       </c>
-      <c r="L38" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M38" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N38" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O38" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3294,10 +3269,10 @@
         <v>24</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E39" s="2">
         <v>89630188615</v>
@@ -3315,25 +3290,23 @@
         <v>58</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K39" s="7">
         <v>45443</v>
       </c>
-      <c r="L39" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M39" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N39" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O39" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L39" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3341,10 +3314,10 @@
         <v>23</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E40" s="2">
         <v>89504450100</v>
@@ -3356,31 +3329,29 @@
         <v>3.5</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K40" s="7">
         <v>45443</v>
       </c>
-      <c r="L40" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M40" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N40" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O40" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3388,10 +3359,10 @@
         <v>22</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E41" s="2">
         <v>89504450100</v>
@@ -3403,31 +3374,29 @@
         <v>3.5</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K41" s="7">
         <v>45443</v>
       </c>
-      <c r="L41" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M41" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N41" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O41" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L41" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3435,10 +3404,10 @@
         <v>25</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E42" s="2">
         <v>89097271777</v>
@@ -3450,31 +3419,29 @@
         <v>3.5</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K42" s="7">
         <v>45443</v>
       </c>
-      <c r="L42" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M42" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N42" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O42" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L42" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3482,10 +3449,10 @@
         <v>26</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E43" s="2">
         <v>89519241346</v>
@@ -3497,31 +3464,29 @@
         <v>3.5</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K43" s="7">
         <v>45443</v>
       </c>
-      <c r="L43" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M43" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N43" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O43" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3529,10 +3494,10 @@
         <v>33</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E44" s="2">
         <v>89127883853</v>
@@ -3544,31 +3509,29 @@
         <v>3.5</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K44" s="7">
         <v>45443</v>
       </c>
-      <c r="L44" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M44" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N44" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O44" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3576,10 +3539,10 @@
         <v>28</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E45" s="2">
         <v>89991264971</v>
@@ -3591,31 +3554,29 @@
         <v>3.5</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K45" s="7">
         <v>45443</v>
       </c>
-      <c r="L45" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M45" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N45" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O45" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3623,10 +3584,10 @@
         <v>27</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E46" s="2">
         <v>89523398898</v>
@@ -3638,39 +3599,40 @@
         <v>3.5</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K46" s="7">
         <v>45443</v>
       </c>
-      <c r="L46" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M46" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="N46" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O46" s="23">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L46" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="22">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G47" s="1">
         <v>158.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T47"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <autoFilter ref="A1:V47"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="22" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="34" max="19" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 

--- a/tiun/Список заявок СК Репка.xlsx
+++ b/tiun/Список заявок СК Репка.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -16,164 +16,134 @@
     <definedName name="_Hlk84408042" localSheetId="0">Лист1!$A$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$V$47</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="382">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ФИО1</t>
+  </si>
+  <si>
+    <t>ФИО2</t>
+  </si>
+  <si>
+    <t>АДРЕС1</t>
+  </si>
+  <si>
+    <t>Телефон1</t>
+  </si>
+  <si>
+    <t>U/кВ</t>
+  </si>
+  <si>
+    <t>P/кВт</t>
+  </si>
+  <si>
+    <t>ПАСПОРТ1</t>
+  </si>
+  <si>
+    <t>ТУ1</t>
+  </si>
+  <si>
+    <t>НОМЕР1</t>
+  </si>
+  <si>
+    <t>Окончание</t>
+  </si>
+  <si>
+    <t>СУММА1</t>
+  </si>
+  <si>
+    <t>Акт номер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тип </t>
+  </si>
+  <si>
+    <t>Номинальный ток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заводской номер </t>
+  </si>
+  <si>
+    <t>ДАТА1</t>
+  </si>
   <si>
     <t>Агафонова Ирина Васильевна</t>
   </si>
   <si>
-    <t>Бойкова Халида Гафуровна</t>
-  </si>
-  <si>
-    <t>Бойков Александр Юрьевич</t>
+    <t>Агафоновой Ирине Васильевне</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 54 (кад. №59:01:1715086:158)</t>
+  </si>
+  <si>
+    <t>паспорт РФ серия 57 07 № 101330, выдан 09.08.2007, Отделом УФМС по Пермскому краю в Дзержинском р-не г. Перми</t>
+  </si>
+  <si>
+    <t>25-1/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-1/2022-АТП</t>
+  </si>
+  <si>
+    <t>8 750 (восемь тысяч семьсот пятьдесят) рублей 00 копеек, в том числе НДС 20% - 1458 (одна тысяча четыреста пятьдесят восемь) рублей 33 копейки</t>
+  </si>
+  <si>
+    <t>135-05</t>
+  </si>
+  <si>
+    <t>СЕ307R34.749.OR1.QYUVLFZ.LR01</t>
+  </si>
+  <si>
+    <t>5(80)А</t>
+  </si>
+  <si>
+    <t>012841187227171</t>
+  </si>
+  <si>
+    <t>8 750 (восемь тысяч семьсот пятьдесят) рублей 00 копеек, в том числе НДС 20% - 1458 (одна тысяча четыреста пятьдесят восемь) рублей 33 копейки.</t>
+  </si>
+  <si>
+    <t>Айкашев Леонид Давыдович</t>
+  </si>
+  <si>
+    <t>Айкашеву Леониду Давыдовичу</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 61 (кад. №59:01:1715086:120)</t>
+  </si>
+  <si>
+    <t>паспорт РФ серия 57 04 № 270096, выдан 24.10.2003, УВД Свердловского р-на г. Перми</t>
+  </si>
+  <si>
+    <t>25-30/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-30/2022-АТП</t>
+  </si>
+  <si>
+    <t>136-05</t>
+  </si>
+  <si>
+    <t>012841187227020</t>
+  </si>
+  <si>
+    <t>2 916 (две тысячи девятьсот шестнадцать) рублей 69 копеек, НДС не облагается</t>
   </si>
   <si>
     <t>Берсенев Владимир Михайлович</t>
   </si>
   <si>
-    <t>Евтехов Алексей Сергеевич</t>
-  </si>
-  <si>
-    <t>Евтехова Валентина Николаевна</t>
-  </si>
-  <si>
-    <t>Ермолаев Анатолий Алексеевич</t>
-  </si>
-  <si>
-    <t>Ермакова Ольга Олеговна</t>
-  </si>
-  <si>
-    <t>Жунина Любовь Евгеньевна</t>
-  </si>
-  <si>
-    <t>Зюзюкина Ирина Ивановна</t>
-  </si>
-  <si>
-    <t>Завальнюк Леонид Сергеевич</t>
-  </si>
-  <si>
-    <t>Корнева Лариса Анатольевна</t>
-  </si>
-  <si>
-    <t>Мосолков Александр Евгеньевич</t>
-  </si>
-  <si>
-    <t>Нецветаев Андрей Николаевич</t>
-  </si>
-  <si>
-    <t>Неудахин Юрий Александрович</t>
-  </si>
-  <si>
-    <t>Неудахин Александр Юрьевич</t>
-  </si>
-  <si>
-    <t>Овчинникова Надежда Павловна</t>
-  </si>
-  <si>
-    <t>Падерин Юрий Викторович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пермякова Елена Евгеньевна </t>
-  </si>
-  <si>
-    <t>Пономарева Нина Геннадьевна</t>
-  </si>
-  <si>
-    <t>Редкоусова Лариса Алексеевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>Старкова Любовь Васильевна</t>
-  </si>
-  <si>
-    <t>Старков Эдуард Алексеевич</t>
-  </si>
-  <si>
-    <t>Слипченко Геннадий Никитич</t>
-  </si>
-  <si>
-    <t>Хамзина Ольга Александровна</t>
-  </si>
-  <si>
-    <t>Хозяшева Анастасия Николаевна</t>
-  </si>
-  <si>
-    <t>Ясырева Надежда Филипповна</t>
-  </si>
-  <si>
-    <t>Яковлев Валерий Николаевич</t>
-  </si>
-  <si>
-    <t>Айкашев Леонид Давыдович</t>
-  </si>
-  <si>
-    <t>Носков Николай Петрович</t>
-  </si>
-  <si>
-    <t>Носкова Людмила Федоровна</t>
-  </si>
-  <si>
-    <t>Зырянова Анна Афанасьевна</t>
-  </si>
-  <si>
-    <t>Шилова Марина Вениаминовна</t>
-  </si>
-  <si>
-    <t>Никитин Василий Иванович</t>
-  </si>
-  <si>
-    <t>Рудометова Татьяна Викторовна</t>
-  </si>
-  <si>
-    <t>Кустова Ольга Михайловна</t>
-  </si>
-  <si>
-    <t>Кустов Николай Александрович</t>
-  </si>
-  <si>
-    <t>Осипова Анжела Вячеславовна</t>
-  </si>
-  <si>
-    <t>Печенкин Виталий Михайлович</t>
-  </si>
-  <si>
-    <t>Печищев Дмитрий Вадимович</t>
-  </si>
-  <si>
-    <t>Осипова Вера Александровна</t>
-  </si>
-  <si>
-    <t>Казак Ольга Владимировна</t>
-  </si>
-  <si>
-    <t>Кузовников Иван Владимирович</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>паспорт РФ серия 57 07 № 101330, выдан 09.08.2007, Отделом УФМС по Пермскому краю в Дзержинском р-не г. Перми</t>
-  </si>
-  <si>
-    <t>25-1/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 54 (кад. №59:01:1715086:158)</t>
-  </si>
-  <si>
-    <t>паспорт РФ серия 57 04 № 270096, выдан 24.10.2003, УВД Свердловского р-на г. Перми</t>
-  </si>
-  <si>
-    <t>25-30/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 61 (кад. №59:01:1715086:120)</t>
+    <t>Берсеневу Владимиру Михайловичу</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 71 (кад. №59:01:1715086:132)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 13 №127305, выдан 06.03.2014, Отделом УФМС России по Пермскому краю в Дзержинском р-не г.Перми</t>
@@ -182,738 +152,1023 @@
     <t>25-4/2022-ТУ от 09.08.2022</t>
   </si>
   <si>
-    <t>Окончание</t>
-  </si>
-  <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 71 (кад. №59:01:1715086:132)</t>
+    <t>25-4/2022-АТП</t>
+  </si>
+  <si>
+    <t>137-05</t>
+  </si>
+  <si>
+    <t>012841187227086</t>
+  </si>
+  <si>
+    <t>3 724 (три тысячи семьсот двадцать четыре) рубля 00 копеек, в том числе НДС 20% - 620 (шестьсот двадцать) рублей 67 копеек</t>
+  </si>
+  <si>
+    <t>Берсенёва Ирина Борисовна</t>
+  </si>
+  <si>
+    <t>Берсенёвой Ирине Борисовне</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 66 
 (кад. №59:01:1715086:164)</t>
   </si>
   <si>
-    <t>Берсенёва Ирина Борисовна</t>
-  </si>
-  <si>
-    <t>паспорт РФ серия 57 09 №401960, выдан 05.03.2009, Отделением УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
-  </si>
-  <si>
-    <t>25-31/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 10 №669946 , выдан 01.11.2010, отделом УФМС России по Пермскому краю в Дзержинского районе г. Пермь</t>
   </si>
   <si>
+    <t>25-3/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-3/2022-АТП</t>
+  </si>
+  <si>
+    <t>138-05</t>
+  </si>
+  <si>
+    <t>012841187227012</t>
+  </si>
+  <si>
+    <t>9 576 (девять тысяч пятьсот семьдесят шесть) рублей 00 копеек, в том числе НДС 20% - 1 596 (одна тысяча пятьсот девяносто шесть) рублей 00 копеек</t>
+  </si>
+  <si>
+    <t>Бойков Александр Юрьевич</t>
+  </si>
+  <si>
+    <t>Бойкову Александру Юрьевичу</t>
+  </si>
+  <si>
     <t>59:01:1715086:135Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 42 (кад. №59:01:1715086:135)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 07 №036475, выдан 15.03.2007, ОВД Дзержинского р-на г.Перми</t>
   </si>
   <si>
+    <t>25-2/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-2/2022-АТП</t>
+  </si>
+  <si>
+    <t>139-05</t>
+  </si>
+  <si>
+    <t>012841187226993</t>
+  </si>
+  <si>
+    <t>31 842 (тридцать одна тысяча восемьсот сорок два) рубля 00 копеек, в том числе НДС 20% - 5307 (пять тысяч триста семь) рублей 00 копеек</t>
+  </si>
+  <si>
+    <t>Бойкова Халида Гафуровна</t>
+  </si>
+  <si>
+    <t>Бойковой Халиде Гафуровне</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 41 (кад. №59:01:1715086:134)</t>
+  </si>
+  <si>
     <t>паспорт РФ серия 67 19 №851291, выдан 07.10.2019, УМВД Ханты-Мансийскому автономному округу-Югре</t>
   </si>
   <si>
+    <t>25-5/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-5/2022-АТП</t>
+  </si>
+  <si>
+    <t>140-05</t>
+  </si>
+  <si>
+    <t>012841188505467</t>
+  </si>
+  <si>
+    <t>Евтехов Алексей Сергеевич</t>
+  </si>
+  <si>
+    <t>Евтехову Алексею Сергеевичу</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 57 (кад. №59:01:1715086:141)</t>
+  </si>
+  <si>
     <t>паспорт РФ серия 67 08 №837757, выдан 09.10.2008, Отделением УФМС России по Ханты-Мансийскому автономному округу-Югре</t>
   </si>
   <si>
+    <t>25-6/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-6/2022-АТП</t>
+  </si>
+  <si>
+    <t>141-05</t>
+  </si>
+  <si>
+    <t>012841187227156</t>
+  </si>
+  <si>
+    <t>Евтехова Валентина Николаевна</t>
+  </si>
+  <si>
+    <t>Евтеховой Валентине Николаевне</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 58 (кад. №59:01:1715086:139)</t>
+  </si>
+  <si>
     <t>паспорт РФ серия 57 07 №217137, выдан 04.03.2008, Отделом УФМС России по Пермскому краю в Дзержинском р-не г.Перми</t>
   </si>
   <si>
+    <t>25-8/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-8/2022-АТП</t>
+  </si>
+  <si>
+    <t>142-05</t>
+  </si>
+  <si>
+    <t>012841187226823</t>
+  </si>
+  <si>
+    <t>Ермакова Ольга Олеговна</t>
+  </si>
+  <si>
+    <t>Ермаковой Ольге Олеговне</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 22 (кад. №59:01:1715086:130)</t>
+  </si>
+  <si>
     <t>паспорт РФ серия 57 04 №620686, выдан 21.04.2005, ОВД Ординского района Пермской области</t>
   </si>
   <si>
+    <t>25-7/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-7/2022-АТП</t>
+  </si>
+  <si>
+    <t>143-05</t>
+  </si>
+  <si>
+    <t>012841187227159</t>
+  </si>
+  <si>
+    <t>Ермолаев Анатолий Алексеевич</t>
+  </si>
+  <si>
+    <t>Ермолаеву Анатолию Алексеевичу</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 26 (кад. №59:01:1715086:126)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 22 №309594, выдан 23.11.2022. ГУ МВД России по Пермскому краю</t>
   </si>
   <si>
-    <t>ФИО1</t>
-  </si>
-  <si>
-    <t>АДРЕС1</t>
-  </si>
-  <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 41 (кад. №59:01:1715086:134)</t>
-  </si>
-  <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 57 (кад. №59:01:1715086:141)</t>
-  </si>
-  <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 58 (кад. №59:01:1715086:139)</t>
-  </si>
-  <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 22 (кад. №59:01:1715086:130)</t>
+    <t>25-9/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-9/2022-АТП</t>
+  </si>
+  <si>
+    <t>144-05</t>
+  </si>
+  <si>
+    <t>012841187226998</t>
+  </si>
+  <si>
+    <t>Жунина Любовь Евгеньевна</t>
+  </si>
+  <si>
+    <t>Жуниной Любови Евгеньевне</t>
   </si>
   <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 45 (кад. №59:01:1715086:149)</t>
   </si>
   <si>
-    <t>Телефон1</t>
-  </si>
-  <si>
     <t>паспорт РФ серия 57 03 №906656, выдан 08.04.2003 УВД Мотовилихинского района города Пермь</t>
   </si>
   <si>
+    <t>25-11/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-11/2022-АТП</t>
+  </si>
+  <si>
+    <t>145-05</t>
+  </si>
+  <si>
+    <t>012841187226746</t>
+  </si>
+  <si>
+    <t>Завальнюк Леонид Сергеевич</t>
+  </si>
+  <si>
+    <t>Завальнюку Леониду Сергеевичу</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 21 (кад. №59:01:1715086:124)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 03 №896475, выдан 19.04.2003, ОВД Дзержинского района города Перми</t>
   </si>
   <si>
+    <t>25-34/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-34/2022-АТП</t>
+  </si>
+  <si>
+    <t>146-05</t>
+  </si>
+  <si>
+    <t>012841187227177</t>
+  </si>
+  <si>
+    <t>Зырянова Анна Афанасьевна</t>
+  </si>
+  <si>
+    <t>Зыряновой Анне Афанасьевне</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 65 (кад. №59:01:1715086:113)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 06 №932366, выдан 03.10.2006, УВД Ленинского района города Пермь</t>
   </si>
   <si>
+    <t>25-10/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-10/2022-АТП</t>
+  </si>
+  <si>
+    <t>Зюзюкина Ирина Ивановна</t>
+  </si>
+  <si>
+    <t>Зюзюкиной Ирине Ивановне</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 25 (кад. №59:01:1715086:128)</t>
   </si>
   <si>
+    <t>паспорт РФ серия 57 06 №949070, выдан 10.10.2006, ОВД Орджоникидзевского района города Пермь</t>
+  </si>
+  <si>
+    <t>11/2023-ТУ от 18.04.2023</t>
+  </si>
+  <si>
+    <t>11/2023-АТП</t>
+  </si>
+  <si>
+    <t>147-05</t>
+  </si>
+  <si>
+    <t>012841187226649</t>
+  </si>
+  <si>
+    <t>Казак Ольга Владимировна</t>
+  </si>
+  <si>
+    <t>Казак Ольге Владимировне</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 64 (кад. №59:01:1715086:174)</t>
-  </si>
-  <si>
-    <t>паспорт РФ серия 57 06 №949070, выдан 10.10.2006, ОВД Орджоникидзевского района города Пермь</t>
-  </si>
-  <si>
-    <t>паспорт РФ серия 57 05 №778547, выдан 06.12.2005, УВД Мотовилихинского района города Пермь</t>
-  </si>
-  <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 70 (кад. №59:01:1715086:115)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 16 №532510, выдан 07.12.2016, 
 Отделом УФМС России по Пермскому краю в Свердловского районе города Перми</t>
   </si>
   <si>
+    <t>25-12/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-12/2022-АТП</t>
+  </si>
+  <si>
+    <t>Корнева Лариса Анатольевна</t>
+  </si>
+  <si>
+    <t>Корневой Ларисе Анатольевне</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 73 (кад. №59:01:1715086:137)</t>
   </si>
   <si>
+    <t>паспорт РФ серия 57 05 №778547, выдан 06.12.2005, УВД Мотовилихинского района города Пермь</t>
+  </si>
+  <si>
+    <t>19/2023-ТУ от 07.06.2023</t>
+  </si>
+  <si>
+    <t>19/2023-АТП от</t>
+  </si>
+  <si>
+    <t>148-05</t>
+  </si>
+  <si>
+    <t>012841187226847</t>
+  </si>
+  <si>
+    <t>Кузовников Иван Владимирович</t>
+  </si>
+  <si>
+    <t>Кузовникову Ивану Владимировичу</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 70 (кад. №59:01:1715086:115)</t>
+  </si>
+  <si>
     <t>паспорт РФ серия 57 19 №929959, выдан 23.01.2020, ГУ МВД России по Пермскому краю</t>
   </si>
   <si>
+    <t>38/2022-ТУ от 07.12.2022</t>
+  </si>
+  <si>
+    <t>38/2022-АТП</t>
+  </si>
+  <si>
+    <t>149-05</t>
+  </si>
+  <si>
+    <t>012841187227152</t>
+  </si>
+  <si>
+    <t>Кустов Николай Александрович</t>
+  </si>
+  <si>
+    <t>Кустову Николаю Александровичу</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 5 (кад. №59:01:1715086:168)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 19 № 939640, выдан 25.12.2019, ГУ МВД России по Пермскому краю</t>
   </si>
   <si>
+    <t>37/2022-ТУ от 06.12.2022</t>
+  </si>
+  <si>
+    <t>37/2022-АТП</t>
+  </si>
+  <si>
+    <t>150-05</t>
+  </si>
+  <si>
+    <t>012841187226765</t>
+  </si>
+  <si>
+    <t>Кустова Ольга Михайловна</t>
+  </si>
+  <si>
+    <t>Кустовой Ольге Михайловне</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 2 (кад. №59:01:1715086:170)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 11 №748688, выдан 23.04.2011, Отделом УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
   </si>
   <si>
+    <t>25-13/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-13/2022-АТП</t>
+  </si>
+  <si>
+    <t>151-05</t>
+  </si>
+  <si>
+    <t>012841187227090</t>
+  </si>
+  <si>
+    <t>Мосолков Александр Евгеньевич</t>
+  </si>
+  <si>
+    <t>Мосолкову Александру Евгеньевичу</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 7 (кад. №59:01:1715086:119)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 14 №286353, выдан 18.02.2015, Отделом УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
   </si>
   <si>
+    <t>25-16/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-16/2022-АТП</t>
+  </si>
+  <si>
+    <t>152-05</t>
+  </si>
+  <si>
+    <t>012841187226958</t>
+  </si>
+  <si>
+    <t>Неудахин Александр Юрьевич</t>
+  </si>
+  <si>
+    <t>Неудахину Александру Юрьевичу</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 91а (кад. №59:01:1715086:123)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 03 №544500, выдан 19.11.2002, ОВД  Дзержинского района города Пермь</t>
   </si>
   <si>
+    <t>25-15/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-15/2022-АТП</t>
+  </si>
+  <si>
+    <t>153-05</t>
+  </si>
+  <si>
+    <t>Неудахин Юрий Александрович</t>
+  </si>
+  <si>
+    <t>Неудахину Юрию Александровичу</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 75 (кад. №59:01:1715086:121)</t>
   </si>
   <si>
+    <t>паспорт РФ серия 57 11 №740823, выдан 01.06.2011, ОУФМС по Пермскому краю в Кировском районе г. Пермь</t>
+  </si>
+  <si>
+    <t>9/588/24 от 04.03.2024</t>
+  </si>
+  <si>
+    <t>9/588/24-АТП</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>CE307R34.749.OR1.QYUVLFZLR01</t>
+  </si>
+  <si>
+    <t>012841187226643</t>
+  </si>
+  <si>
+    <t>Нецветаев Андрей Николаевич</t>
+  </si>
+  <si>
+    <t>Нецветаеву Андрею Николаевичу</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 79 (кад. №59:01:1715086:160)</t>
   </si>
   <si>
+    <t>паспорт РФ серия 57 10 №647738, выдан 24.09.2010, Отделом УФМС России по Пермскому краю в Кировском районе города Перми</t>
+  </si>
+  <si>
+    <t>25-14/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-14/2022-АТП</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>012841187227161</t>
+  </si>
+  <si>
+    <t>Никитин Василий Иванович</t>
+  </si>
+  <si>
+    <t>Никитину Василию Ивановичу</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. 3-я Набережная, 80а, участок 63 (кад. №59:01:1715086:161)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 15 №372671, выдан 28.09.2015, Отделом УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
   </si>
   <si>
-    <t>паспорт РФ серия 57 10 №647738, выдан 24.09.2010, Отделом УФМС России по Пермскому краю в Кировском районе города Перми</t>
+    <t>25-36/2022-ТУ от 19.09.2022</t>
+  </si>
+  <si>
+    <t>25-36/2022-АТП</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>012841187227178</t>
+  </si>
+  <si>
+    <t>Никулина Елена Ивановна</t>
+  </si>
+  <si>
+    <t>Никулиной Елене Ивановне</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, (кадастровый номер земельного участка 59:01:1715086:129)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 01 №705006, выдан 06.12.2001, Кировским РОВД города Пермь</t>
   </si>
   <si>
+    <t>25-32/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-32/2022-АТП</t>
+  </si>
+  <si>
+    <t>130-05</t>
+  </si>
+  <si>
+    <t>СЕ207R7.849.2.OG.QUVLFGS01</t>
+  </si>
+  <si>
+    <t>Носков Николай Петрович</t>
+  </si>
+  <si>
+    <t>Носкову Николаю Петровичу</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 49 (кад. №59:01:1715086:116)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 01 №705007, выдан 06.12.2001, Кировским РОВД города Перм</t>
   </si>
   <si>
+    <t>25-33/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-33/2022-АТП</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>012841187227027</t>
+  </si>
+  <si>
+    <t>Носкова Людмила Федоровна</t>
+  </si>
+  <si>
+    <t>Носковой Людмиле Федоровне</t>
+  </si>
+  <si>
     <t>Пермский край, Пермь, с/к «Репка», ул. Набережная, 80а, участок 68 (кад. №59:01:1715086:173)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 10 №621613, выдан 24.08.2010, Отделом  УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
   </si>
   <si>
+    <t>25-18/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-18/2022-АТП</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>012841187226833</t>
+  </si>
+  <si>
+    <t>Овчинникова Надежда Павловна</t>
+  </si>
+  <si>
+    <t>Овчинниковой Надежде Павловне</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 55 (кад. №59:01:1715086:117)</t>
   </si>
   <si>
+    <t>паспорт РФ серия 57 23 №444172, выдан 17.10.2023, ГУ МВД России по Пермскому краю</t>
+  </si>
+  <si>
+    <t>39/2023-ТУ от 07.12.2022</t>
+  </si>
+  <si>
+    <t>39/2023-АТП от</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>012841187226754</t>
+  </si>
+  <si>
+    <t>Осипова Анжела Вячеславовна</t>
+  </si>
+  <si>
+    <t>Осиповой Анжеле Вячеславовне</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 52 (кад. №59:01:1715086:171)</t>
+  </si>
+  <si>
     <t>паспорт РФ серия 57 19 №945856, выдан 16.01.2019, ГУ МВД России по Пермскому краю</t>
   </si>
   <si>
+    <t>03/2023-ТУ от 05.01.2023</t>
+  </si>
+  <si>
+    <t>03/2023-АТП от</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>012841187227222</t>
+  </si>
+  <si>
+    <t>Осипова Вера Александровна</t>
+  </si>
+  <si>
+    <t>Осиповой Вере Александровне</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 53 (кад. №59:01:1715086:172)</t>
   </si>
   <si>
-    <t>паспорт РФ серия 57 23 №444172, выдан 17.10.2023, ГУ МВД России по Пермскому краю</t>
-  </si>
-  <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 52 (кад. №59:01:1715086:171)</t>
-  </si>
-  <si>
     <t>паспорт РФ серия 65 09 №689988, выдан 25.08.2009, Отделом УФМС России по Свердловской области в Железнодорожном районе города Екатеринбурга</t>
   </si>
   <si>
+    <t>25-19/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-19/2022-АТП</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>012841187227072</t>
+  </si>
+  <si>
+    <t>Падерин Юрий Викторович</t>
+  </si>
+  <si>
+    <t>Падерину Юрию Викторовичу</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 6 (кад. №59:01:1715086:157)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 10 №594423, выдан 11.05.2010, Отделом УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
   </si>
   <si>
+    <t>25-20/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-20/2022-АТП</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>012841187227108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пермякова Елена Евгеньевна </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пермяковой Елене Евгеньевне </t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 14 (кад. №59:01:1715086:118)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 17 №702471, выдан 26.03.2018, ГУ МВД России по Пермскому краю</t>
   </si>
   <si>
+    <t>40/2022-ТУ от 07.12.2022</t>
+  </si>
+  <si>
+    <t>40/2022-АТП от</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>012841187226850</t>
+  </si>
+  <si>
+    <t>Печенкин Виталий Михайлович</t>
+  </si>
+  <si>
+    <t>Печенкину Виталию Михайловичу</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 3 (кад. №59:01:1715086:167)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 14 №252672, выдан 26.11.2014, Отделом УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
   </si>
   <si>
+    <t>41/2022-ТУ от 12.12.2022</t>
+  </si>
+  <si>
+    <t>41/2022-АТП от</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>012841187226660</t>
+  </si>
+  <si>
+    <t>Печищев Дмитрий Вадимович</t>
+  </si>
+  <si>
+    <t>Печищеву Дмитрию Вадимовичу</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 1 (кад. №59:01:1715086:169)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 04 №285700, выдан 31.10.2003, Отделом внутренних дел Дзержинского района города Пермь</t>
   </si>
   <si>
+    <t>25-21/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-21/2022-АТП</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>012841187227231</t>
+  </si>
+  <si>
+    <t>Пономарева Нина Геннадьевна</t>
+  </si>
+  <si>
+    <t>Пономаревой Нине Геннадьевне</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 51 (кад. №59:01:1715086:145)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 23 №426664, выдан 13.10.2023 ГУ МВД России по Пермскому краю</t>
   </si>
   <si>
+    <t>25-22/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-22/2022-АТП</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>012841187227149</t>
+  </si>
+  <si>
+    <t>Редкоусова Лариса Алексеевна</t>
+  </si>
+  <si>
+    <t>Редкоусовой Ларисе Алексеевне</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 13 (кад. №59:01:1715086:154)</t>
   </si>
   <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>паспорт РФ серия 57 05 №893237, выдан 23.05.2006 ОВД  Дзержинского района города Пермь</t>
   </si>
   <si>
+    <t>25-37/2022-ТУ от 24.10.2022</t>
+  </si>
+  <si>
+    <t>25-37/2022-АТП</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>012841187227199</t>
+  </si>
+  <si>
+    <t>Рудометова Татьяна Викторовна</t>
+  </si>
+  <si>
+    <t>Рудометовой Татьяне Викторовне</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 82 (кад. №59:01:1715086:166)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 04 №195053, выдан 26.09.2003, ОВД Дзержинского района города Пермь</t>
   </si>
   <si>
+    <t>25-25/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-25/2022-АТП</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>012841187226743</t>
+  </si>
+  <si>
+    <t>Слипченко Геннадий Никитич</t>
+  </si>
+  <si>
+    <t>Слипченко Геннадию Никитичу</t>
+  </si>
+  <si>
     <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 8 (кад. №59:01:1715086:131)</t>
   </si>
   <si>
+    <t>паспорт РФ серия 57 09 №401960, выдан 05.03.2009, Отделением УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
+  </si>
+  <si>
+    <t>25-31/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-31/2022-АТП</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>012841187227182</t>
+  </si>
+  <si>
+    <t>Старков Эдуард Алексеевич</t>
+  </si>
+  <si>
+    <t>Старкову Эдуарду Алексеевичу</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 11 (кад. №59:01:1715086:138)</t>
+  </si>
+  <si>
     <t>паспорт РФ серия 57 18 №830408, выдан 25.03.2019, ГУ МВД России по Пермскому краю</t>
   </si>
   <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 11 (кад. №59:01:1715086:138)</t>
+    <t>25-24/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-24/2022-АТП</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>012841187226852</t>
+  </si>
+  <si>
+    <t>Старкова Любовь Васильевна</t>
+  </si>
+  <si>
+    <t>Старковой Любови Васильевне</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 12 (кад. №59:01:1715086:156)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 01 №552386, выдан 04.01.2002, Верещагинским РОВД Пермской области</t>
   </si>
   <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 12 (кад. №59:01:1715086:156)</t>
+    <t>25-23/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-23/2022-АТП</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>012841187227188</t>
+  </si>
+  <si>
+    <t>Хамзина Ольга Александровна</t>
+  </si>
+  <si>
+    <t>Хамзиной Ольге Александровне</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 74 (кад. №59:01:1715086:153)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 11 №855446, выдан 06.03.2012, Отделом УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
   </si>
   <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 74 (кад. №59:01:1715086:153)</t>
+    <t>25-26/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-26/2022-АТП</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>012841186401282</t>
+  </si>
+  <si>
+    <t>Хозяшева Анастасия Николаевна</t>
+  </si>
+  <si>
+    <t>Хозяшевой Анастасии Николаевне</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 4 (кад. №59:01:1715086:152)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 18 №757777, выдан 04.08.2018, ГУ МВД России по Пермскому краю</t>
   </si>
   <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 4 (кад. №59:01:1715086:152)</t>
+    <t>25-27/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-27/2022-АТП</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>012841187227025</t>
+  </si>
+  <si>
+    <t>Шилова Марина Вениаминовна</t>
+  </si>
+  <si>
+    <t>Шиловой Марине Вениаминовне</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 47 (кад. №59:01:1715086:159)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 08 №282995, выдан 29.07.2008, Отделом УФМС России по Пермскому краю в Дзержинском районе города Пермь</t>
   </si>
   <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 47 (кад. №59:01:1715086:159)</t>
+    <t>25-35/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-35/2022-АТП</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>012841186401458</t>
+  </si>
+  <si>
+    <t>Яковлев Валерий Николаевич</t>
+  </si>
+  <si>
+    <t>Яковлеву Валерию Николаевичу</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 24 (кад. №59:01:1715086:148)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 05 №780224, выдан 15.11.2005, ОВД Дзержинского района города Пермь</t>
   </si>
   <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 24 (кад. №59:01:1715086:148)</t>
+    <t>25-29/2022-ТУ от 09.08.2022</t>
+  </si>
+  <si>
+    <t>25-29/2022-АТП</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>012841187227160</t>
+  </si>
+  <si>
+    <t>Ясырева Надежда Филипповна</t>
+  </si>
+  <si>
+    <t>Ясыревой Надежде Филипповне</t>
+  </si>
+  <si>
+    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 19 (кад. №59:01:1715086:140)</t>
   </si>
   <si>
     <t>паспорт РФ серия 57 01 №698236, выдан 02.11.2001, ОВД Дзержинского района города Пермь</t>
   </si>
   <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, участок 19 (кад. №59:01:1715086:140)</t>
-  </si>
-  <si>
-    <t>Никулина Елена Ивановна</t>
-  </si>
-  <si>
-    <t>Пермский край, г. Пермь, с/к «Репка», ул. Набережная, 80а, (кадастровый номер земельного участка 59:01:1715086:129)</t>
-  </si>
-  <si>
-    <t>9/588/24 от 04.03.2024</t>
-  </si>
-  <si>
-    <t>паспорт РФ серия 57 11 №740823, выдан 01.06.2011, ОУФМС по Пермскому краю в Кировском районе г. Пермь</t>
-  </si>
-  <si>
-    <t>ТУ1</t>
-  </si>
-  <si>
-    <t>8 750 (восемь тысяч семьсот пятьдесят) рублей 00 копеек, в том числе НДС 20% - 1458 (одна тысяча четыреста пятьдесят восемь) рублей 33 копейки.</t>
-  </si>
-  <si>
-    <t>2 916 (две тысячи девятьсот шестнадцать) рублей 69 копеек, НДС не облагается</t>
-  </si>
-  <si>
-    <t>3 724 (три тысячи семьсот двадцать четыре) рубля 00 копеек, в том числе НДС 20% - 620 (шестьсот двадцать) рублей 67 копеек</t>
-  </si>
-  <si>
-    <t>9 576 (девять тысяч пятьсот семьдесят шесть) рублей 00 копеек, в том числе НДС 20% - 1 596 (одна тысяча пятьсот девяносто шесть) рублей 00 копеек</t>
-  </si>
-  <si>
-    <t>31 842 (тридцать одна тысяча восемьсот сорок два) рубля 00 копеек, в том числе НДС 20% - 5307 (пять тысяч триста семь) рублей 00 копеек</t>
-  </si>
-  <si>
-    <t>8 750 (восемь тысяч семьсот пятьдесят) рублей 00 копеек, в том числе НДС 20% - 1458 (одна тысяча четыреста пятьдесят восемь) рублей 33 копейки</t>
-  </si>
-  <si>
-    <t>СУММА1</t>
-  </si>
-  <si>
-    <t>ПАСПОРТ1</t>
-  </si>
-  <si>
-    <t>ДАТА1</t>
-  </si>
-  <si>
-    <t>НОМЕР1</t>
-  </si>
-  <si>
-    <t>25-1/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-30/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-4/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-3/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-2/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-5/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-6/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-8/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-7/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-9/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-11/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-34/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-10/2022-АТП</t>
-  </si>
-  <si>
-    <t>11/2023-АТП</t>
-  </si>
-  <si>
-    <t>25-12/2022-АТП</t>
-  </si>
-  <si>
-    <t>19/2023-АТП от</t>
-  </si>
-  <si>
-    <t>38/2022-АТП</t>
-  </si>
-  <si>
-    <t>37/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-13/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-16/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-15/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-14/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-36/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-32/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-33/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-18/2022-АТП</t>
-  </si>
-  <si>
-    <t>39/2023-АТП от</t>
-  </si>
-  <si>
-    <t>03/2023-АТП от</t>
-  </si>
-  <si>
-    <t>25-19/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-20/2022-АТП</t>
-  </si>
-  <si>
-    <t>40/2022-АТП от</t>
-  </si>
-  <si>
-    <t>41/2022-АТП от</t>
-  </si>
-  <si>
-    <t>25-21/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-22/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-37/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-25/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-31/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-24/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-23/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-26/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-27/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-35/2022-АТП</t>
-  </si>
-  <si>
-    <t>25-29/2022-АТП</t>
+    <t>25-28/2022-ТУ от 09.08.2022</t>
   </si>
   <si>
     <t>25-28/2022-АТП</t>
   </si>
   <si>
-    <t>9/588/24-АТП</t>
-  </si>
-  <si>
-    <t>Агафоновой Ирине Васильевне</t>
-  </si>
-  <si>
-    <t>Айкашеву Леониду Давыдовичу</t>
-  </si>
-  <si>
-    <t>Берсеневу Владимиру Михайловичу</t>
-  </si>
-  <si>
-    <t>Берсенёвой Ирине Борисовне</t>
-  </si>
-  <si>
-    <t>Бойкову Александру Юрьевичу</t>
-  </si>
-  <si>
-    <t>Бойковой Халиде Гафуровне</t>
-  </si>
-  <si>
-    <t>Евтехову Алексею Сергеевичу</t>
-  </si>
-  <si>
-    <t>Евтеховой Валентине Николаевне</t>
-  </si>
-  <si>
-    <t>Ермаковой Ольге Олеговне</t>
-  </si>
-  <si>
-    <t>Ермолаеву Анатолию Алексеевичу</t>
-  </si>
-  <si>
-    <t>Жуниной Любови Евгеньевне</t>
-  </si>
-  <si>
-    <t>Завальнюку Леониду Сергеевичу</t>
-  </si>
-  <si>
-    <t>Зыряновой Анне Афанасьевне</t>
-  </si>
-  <si>
-    <t>Зюзюкиной Ирине Ивановне</t>
-  </si>
-  <si>
-    <t>Казак Ольге Владимировне</t>
-  </si>
-  <si>
-    <t>Корневой Ларисе Анатольевне</t>
-  </si>
-  <si>
-    <t>Кузовникову Ивану Владимировичу</t>
-  </si>
-  <si>
-    <t>Кустову Николаю Александровичу</t>
-  </si>
-  <si>
-    <t>Кустовой Ольге Михайловне</t>
-  </si>
-  <si>
-    <t>Мосолкову Александру Евгеньевичу</t>
-  </si>
-  <si>
-    <t>Неудахину Александру Юрьевичу</t>
-  </si>
-  <si>
-    <t>Неудахину Юрию Александровичу</t>
-  </si>
-  <si>
-    <t>Нецветаеву Андрею Николаевичу</t>
-  </si>
-  <si>
-    <t>Никитину Василию Ивановичу</t>
-  </si>
-  <si>
-    <t>Никулиной Елене Ивановне</t>
-  </si>
-  <si>
-    <t>Носкову Николаю Петровичу</t>
-  </si>
-  <si>
-    <t>Носковой Людмиле Федоровне</t>
-  </si>
-  <si>
-    <t>Овчинниковой Надежде Павловне</t>
-  </si>
-  <si>
-    <t>Осиповой Анжеле Вячеславовне</t>
-  </si>
-  <si>
-    <t>Осиповой Вере Александровне</t>
-  </si>
-  <si>
-    <t>Падерину Юрию Викторовичу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пермяковой Елене Евгеньевне </t>
-  </si>
-  <si>
-    <t>Печенкину Виталию Михайловичу</t>
-  </si>
-  <si>
-    <t>Печищеву Дмитрию Вадимовичу</t>
-  </si>
-  <si>
-    <t>Пономаревой Нине Геннадьевне</t>
-  </si>
-  <si>
-    <t>Редкоусовой Ларисе Алексеевне</t>
-  </si>
-  <si>
-    <t>Рудометовой Татьяне Викторовне</t>
-  </si>
-  <si>
-    <t>Слипченко Геннадию Никитичу</t>
-  </si>
-  <si>
-    <t>Старкову Эдуарду Алексеевичу</t>
-  </si>
-  <si>
-    <t>Старковой Любови Васильевне</t>
-  </si>
-  <si>
-    <t>Хамзиной Ольге Александровне</t>
-  </si>
-  <si>
-    <t>Хозяшевой Анастасии Николаевне</t>
-  </si>
-  <si>
-    <t>Шиловой Марине Вениаминовне</t>
-  </si>
-  <si>
-    <t>Яковлеву Валерию Николаевичу</t>
-  </si>
-  <si>
-    <t>Ясыревой Надежде Филипповне</t>
-  </si>
-  <si>
-    <t>ФИО2</t>
-  </si>
-  <si>
-    <t>25-3/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-2/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-5/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-6/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-8/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-7/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-9/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-11/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-34/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-10/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>11/2023-ТУ от 18.04.2023</t>
-  </si>
-  <si>
-    <t>25-12/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>19/2023-ТУ от 07.06.2023</t>
-  </si>
-  <si>
-    <t>38/2022-ТУ от 07.12.2022</t>
-  </si>
-  <si>
-    <t>37/2022-ТУ от 06.12.2022</t>
-  </si>
-  <si>
-    <t>25-13/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-16/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-15/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-14/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-36/2022-ТУ от 19.09.2022</t>
-  </si>
-  <si>
-    <t>25-32/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-33/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-18/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>39/2023-ТУ от 07.12.2022</t>
-  </si>
-  <si>
-    <t>03/2023-ТУ от 05.01.2023</t>
-  </si>
-  <si>
-    <t>25-19/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-20/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>40/2022-ТУ от 07.12.2022</t>
-  </si>
-  <si>
-    <t>41/2022-ТУ от 12.12.2022</t>
-  </si>
-  <si>
-    <t>25-21/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-22/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-37/2022-ТУ от 24.10.2022</t>
-  </si>
-  <si>
-    <t>25-25/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-24/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-23/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-26/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-27/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-35/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-29/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t>25-28/2022-ТУ от 09.08.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тип </t>
-  </si>
-  <si>
-    <t>Номинальный ток</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заводской номер </t>
-  </si>
-  <si>
-    <t>Акт номер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">№ 135-05    </t>
-  </si>
-  <si>
-    <t>СЕ307 R34.749.OR1.QYUVLFZ.LR01</t>
-  </si>
-  <si>
-    <t>5(80)А</t>
-  </si>
-  <si>
-    <t>Напряжение</t>
-  </si>
-  <si>
-    <t>Мощность</t>
+    <t>569</t>
+  </si>
+  <si>
+    <t>012841186401485</t>
   </si>
 </sst>
 </file>
@@ -1103,82 +1358,82 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1493,14 +1748,15 @@
   </sheetPr>
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="22.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="3" customWidth="1"/>
@@ -1514,76 +1770,77 @@
     <col min="15" max="15" width="14.85546875" style="3" customWidth="1"/>
     <col min="16" max="16" width="29.140625" style="25" customWidth="1"/>
     <col min="17" max="17" width="16.28515625" style="3" customWidth="1"/>
-    <col min="18" max="21" width="9.140625" style="3"/>
+    <col min="18" max="21" width="9.140625" style="3" customWidth="1"/>
     <col min="22" max="22" width="104.28515625" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="3"/>
+    <col min="23" max="23" width="9.140625" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>247</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>295</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>296</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>288</v>
+        <v>13</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2">
         <v>89082464185</v>
@@ -1595,40 +1852,40 @@
         <v>3.5</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="K2" s="17">
         <v>45443</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>292</v>
+        <v>24</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>293</v>
+        <v>25</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="P2" s="29">
-        <v>12841187227171</v>
+        <v>26</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="Q2" s="22">
         <v>45432</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1636,10 +1893,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2">
         <v>89091013660</v>
@@ -1651,43 +1908,51 @@
         <v>3.5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="K3" s="16">
         <v>45443</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="Q3" s="22">
         <v>45432</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2">
         <v>89125843410</v>
@@ -1699,43 +1964,51 @@
         <v>3.5</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="K4" s="16">
         <v>45443</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="Q4" s="22">
         <v>45432</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2">
         <v>89227379481</v>
@@ -1747,43 +2020,51 @@
         <v>3.5</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K5" s="16">
         <v>45443</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="Q5" s="22">
         <v>45432</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2">
         <v>89824598506</v>
@@ -1795,43 +2076,51 @@
         <v>3.5</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="K6" s="7">
         <v>45443</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="Q6" s="22">
         <v>45432</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2">
         <v>89091096802</v>
@@ -1843,40 +2132,48 @@
         <v>3.5</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="K7" s="7">
         <v>45443</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="Q7" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2">
         <v>89125991845</v>
@@ -1888,40 +2185,48 @@
         <v>3.5</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="K8" s="7">
         <v>45443</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="Q8" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2">
         <v>89125991845</v>
@@ -1933,40 +2238,48 @@
         <v>3.5</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="K9" s="7">
         <v>45443</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="Q9" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2">
         <v>89027939590</v>
@@ -1978,40 +2291,48 @@
         <v>3.5</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="K10" s="7">
         <v>45443</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="Q10" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="E11" s="2">
         <v>89824963066</v>
@@ -2023,40 +2344,48 @@
         <v>3.5</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>254</v>
+        <v>101</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="K11" s="7">
         <v>45443</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="Q11" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E12" s="2">
         <v>89028331460</v>
@@ -2068,40 +2397,48 @@
         <v>3.5</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>255</v>
+        <v>109</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="K12" s="7">
         <v>45443</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="Q12" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="E13" s="2">
         <v>89824743899</v>
@@ -2113,40 +2450,48 @@
         <v>3.5</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>256</v>
+        <v>117</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="K13" s="7">
         <v>45443</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="Q13" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>214</v>
+        <v>122</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="E14" s="2">
         <v>89523351888</v>
@@ -2158,19 +2503,19 @@
         <v>3.5</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>257</v>
+        <v>125</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="K14" s="7">
         <v>45443</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
@@ -2180,18 +2525,18 @@
         <v>45432</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="E15" s="2">
         <v>89124821690</v>
@@ -2203,40 +2548,48 @@
         <v>3.5</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="K15" s="7">
         <v>45423</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>134</v>
+      </c>
       <c r="Q15" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E16" s="2">
         <v>89222428214</v>
@@ -2248,19 +2601,19 @@
         <v>3.5</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="K16" s="7">
         <v>45443</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
@@ -2270,18 +2623,18 @@
         <v>45432</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="E17" s="2">
         <v>89504610328</v>
@@ -2293,40 +2646,48 @@
         <v>3.5</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="K17" s="7">
         <v>45443</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>148</v>
+      </c>
       <c r="Q17" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="E18" s="2">
         <v>89504444466</v>
@@ -2338,40 +2699,48 @@
         <v>3</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>261</v>
+        <v>153</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="K18" s="7">
         <v>45443</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24"/>
+        <v>55</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>156</v>
+      </c>
       <c r="Q18" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="E19" s="2">
         <v>89519350669</v>
@@ -2383,40 +2752,48 @@
         <v>3.5</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K19" s="7">
         <v>45443</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>164</v>
+      </c>
       <c r="Q19" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="E20" s="2">
         <v>89226471285</v>
@@ -2428,40 +2805,48 @@
         <v>3.5</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7">
         <v>45443</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>172</v>
+      </c>
       <c r="Q20" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="E21" s="2">
         <v>89222454484</v>
@@ -2473,40 +2858,48 @@
         <v>3.5</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K21" s="7">
         <v>45443</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="Q21" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="E22" s="2">
         <v>89124824329</v>
@@ -2518,40 +2911,48 @@
         <v>3.5</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="K22" s="7">
         <v>45443</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="Q22" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="14" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="14" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="E23" s="2">
         <v>89124824329</v>
@@ -2563,40 +2964,48 @@
         <v>3.5</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K23" s="13">
         <v>45480</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="24" t="s">
+        <v>196</v>
+      </c>
       <c r="Q23" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="E24" s="2">
         <v>89048424872</v>
@@ -2608,40 +3017,48 @@
         <v>3.5</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="K24" s="7">
         <v>45443</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>204</v>
+      </c>
       <c r="Q24" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="E25" s="2">
         <v>89024734685</v>
@@ -2653,40 +3070,48 @@
         <v>3.5</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="K25" s="7">
         <v>45443</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>212</v>
+      </c>
       <c r="Q25" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="E26" s="11">
         <v>89504439396</v>
@@ -2698,40 +3123,46 @@
         <v>5</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>102</v>
+        <v>216</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="K26" s="7">
         <v>45443</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
+        <v>64</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>26</v>
+      </c>
       <c r="P26" s="24"/>
       <c r="Q26" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="E27" s="2">
         <v>89197090590</v>
@@ -2743,40 +3174,48 @@
         <v>3.5</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="K27" s="7">
         <v>45443</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="24" t="s">
+        <v>228</v>
+      </c>
       <c r="Q27" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c r="E28" s="2">
         <v>89197090590</v>
@@ -2788,40 +3227,48 @@
         <v>3.5</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="K28" s="7">
         <v>45443</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" s="24" t="s">
+        <v>236</v>
+      </c>
       <c r="Q28" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="E29" s="2">
         <v>89523325290</v>
@@ -2833,40 +3280,48 @@
         <v>3.5</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="K29" s="7">
         <v>45443</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M29" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O29" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" s="24" t="s">
+        <v>244</v>
+      </c>
       <c r="Q29" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="E30" s="2">
         <v>89026381759</v>
@@ -2878,40 +3333,48 @@
         <v>3.5</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="K30" s="7">
         <v>45443</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" s="24" t="s">
+        <v>252</v>
+      </c>
       <c r="Q30" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="E31" s="2">
         <v>89026381759</v>
@@ -2923,40 +3386,48 @@
         <v>3.5</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="K31" s="7">
         <v>45443</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="M31" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" s="24" t="s">
+        <v>260</v>
+      </c>
       <c r="Q31" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="E32" s="2">
         <v>89026344932</v>
@@ -2968,40 +3439,48 @@
         <v>3.5</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="K32" s="7">
         <v>45443</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O32" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" s="24" t="s">
+        <v>268</v>
+      </c>
       <c r="Q32" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>18</v>
+        <v>269</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>115</v>
+        <v>271</v>
       </c>
       <c r="E33" s="2">
         <v>89194558266</v>
@@ -3013,40 +3492,48 @@
         <v>3.5</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>116</v>
+        <v>272</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="K33" s="7">
         <v>45443</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O33" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" s="24" t="s">
+        <v>276</v>
+      </c>
       <c r="Q33" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>117</v>
+        <v>279</v>
       </c>
       <c r="E34" s="2">
         <v>89028090634</v>
@@ -3058,40 +3545,48 @@
         <v>3.5</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="K34" s="7">
         <v>45443</v>
       </c>
       <c r="L34" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M34" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O34" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" s="24" t="s">
+        <v>284</v>
+      </c>
       <c r="Q34" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>119</v>
+        <v>287</v>
       </c>
       <c r="E35" s="2">
         <v>89125888232</v>
@@ -3103,41 +3598,49 @@
         <v>3.5</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>189</v>
+        <v>290</v>
       </c>
       <c r="K35" s="7">
         <v>45443</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O35" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="24" t="s">
+        <v>292</v>
+      </c>
       <c r="Q35" s="22">
         <v>45432</v>
       </c>
       <c r="V35" s="5"/>
     </row>
-    <row r="36" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>19</v>
+        <v>293</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>121</v>
+        <v>295</v>
       </c>
       <c r="E36" s="2">
         <v>89504591682</v>
@@ -3149,43 +3652,51 @@
         <v>3.5</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>190</v>
+        <v>298</v>
       </c>
       <c r="K36" s="7">
         <v>45443</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N36" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O36" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" s="24" t="s">
+        <v>300</v>
+      </c>
       <c r="Q36" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>21</v>
+        <v>304</v>
       </c>
       <c r="F37" s="2">
         <v>0.4</v>
@@ -3194,40 +3705,48 @@
         <v>3.5</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="K37" s="7">
         <v>45443</v>
       </c>
       <c r="L37" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="N37" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O37" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" s="24" t="s">
+        <v>309</v>
+      </c>
       <c r="Q37" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>125</v>
+        <v>312</v>
       </c>
       <c r="E38" s="2">
         <v>89082587779</v>
@@ -3239,40 +3758,48 @@
         <v>3.5</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>126</v>
+        <v>313</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>192</v>
+        <v>315</v>
       </c>
       <c r="K38" s="7">
         <v>45443</v>
       </c>
       <c r="L38" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="N38" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O38" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P38" s="24" t="s">
+        <v>317</v>
+      </c>
       <c r="Q38" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="E39" s="2">
         <v>89630188615</v>
@@ -3284,40 +3811,48 @@
         <v>3.5</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>58</v>
+        <v>322</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
       <c r="K39" s="7">
         <v>45443</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O39" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39" s="24" t="s">
+        <v>325</v>
+      </c>
       <c r="Q39" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>23</v>
+        <v>326</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>240</v>
+        <v>327</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>129</v>
+        <v>328</v>
       </c>
       <c r="E40" s="2">
         <v>89504450100</v>
@@ -3329,40 +3864,48 @@
         <v>3.5</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>128</v>
+        <v>329</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="K40" s="7">
         <v>45443</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M40" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O40" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" s="24" t="s">
+        <v>333</v>
+      </c>
       <c r="Q40" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>241</v>
+        <v>335</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>131</v>
+        <v>336</v>
       </c>
       <c r="E41" s="2">
         <v>89504450100</v>
@@ -3374,40 +3917,48 @@
         <v>3.5</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>130</v>
+        <v>337</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>282</v>
+        <v>338</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="K41" s="7">
         <v>45443</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="N41" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O41" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P41" s="24" t="s">
+        <v>341</v>
+      </c>
       <c r="Q41" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>25</v>
+        <v>342</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>242</v>
+        <v>343</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>133</v>
+        <v>344</v>
       </c>
       <c r="E42" s="2">
         <v>89097271777</v>
@@ -3419,40 +3970,48 @@
         <v>3.5</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>132</v>
+        <v>345</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>283</v>
+        <v>346</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>196</v>
+        <v>347</v>
       </c>
       <c r="K42" s="7">
         <v>45443</v>
       </c>
       <c r="L42" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="N42" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O42" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" s="24" t="s">
+        <v>349</v>
+      </c>
       <c r="Q42" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>243</v>
+        <v>351</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>135</v>
+        <v>352</v>
       </c>
       <c r="E43" s="2">
         <v>89519241346</v>
@@ -3464,40 +4023,48 @@
         <v>3.5</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>134</v>
+        <v>353</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>197</v>
+        <v>355</v>
       </c>
       <c r="K43" s="7">
         <v>45443</v>
       </c>
       <c r="L43" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="N43" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O43" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P43" s="24" t="s">
+        <v>357</v>
+      </c>
       <c r="Q43" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>33</v>
+        <v>358</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>244</v>
+        <v>359</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="E44" s="2">
         <v>89127883853</v>
@@ -3509,40 +4076,48 @@
         <v>3.5</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>136</v>
+        <v>361</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>285</v>
+        <v>362</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>198</v>
+        <v>363</v>
       </c>
       <c r="K44" s="7">
         <v>45443</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M44" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="N44" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O44" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" s="24" t="s">
+        <v>365</v>
+      </c>
       <c r="Q44" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>28</v>
+        <v>366</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>139</v>
+        <v>368</v>
       </c>
       <c r="E45" s="2">
         <v>89991264971</v>
@@ -3554,40 +4129,48 @@
         <v>3.5</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>138</v>
+        <v>369</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>199</v>
+        <v>371</v>
       </c>
       <c r="K45" s="7">
         <v>45443</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M45" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="N45" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O45" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45" s="24" t="s">
+        <v>373</v>
+      </c>
       <c r="Q45" s="22">
         <v>45432</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>27</v>
+        <v>374</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>246</v>
+        <v>375</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>141</v>
+        <v>376</v>
       </c>
       <c r="E46" s="2">
         <v>89523398898</v>
@@ -3599,24 +4182,32 @@
         <v>3.5</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>140</v>
+        <v>377</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>200</v>
+        <v>379</v>
       </c>
       <c r="K46" s="7">
         <v>45443</v>
       </c>
       <c r="L46" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="N46" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O46" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" s="24" t="s">
+        <v>381</v>
+      </c>
       <c r="Q46" s="22">
         <v>45432</v>
       </c>
@@ -3629,7 +4220,7 @@
   </sheetData>
   <autoFilter ref="A1:V47"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="22" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="22" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="34" max="19" man="1"/>
   </rowBreaks>
